--- a/scoping/BOM.xlsx
+++ b/scoping/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jockj\git_repos\open-hopper\scoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276135E-0C38-42B2-ADDF-0708A09B69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C529EEF-AC8A-49E5-961A-DB0902083DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,76 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>BOC standard fitting</t>
-  </si>
-  <si>
-    <t>Not Ordered</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>BOC</t>
-  </si>
-  <si>
-    <t>N2O-REG-100</t>
-  </si>
-  <si>
-    <t>N₂O Regulator</t>
-  </si>
-  <si>
-    <t>Pressurization</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>Pressure rated to 100 bar</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Earls</t>
-  </si>
-  <si>
-    <t>23216-6-6</t>
-  </si>
-  <si>
-    <t>AN-4 SS Elbow</t>
-  </si>
-  <si>
-    <t>Feed System</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Main IPA tank tube</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>Metals4U</t>
-  </si>
-  <si>
-    <t>6061-T6-152</t>
-  </si>
-  <si>
-    <t>6" 6082-T6 Aluminum Tube</t>
-  </si>
-  <si>
-    <t>Propellant Tanks</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Notes</t>
   </si>
@@ -153,13 +84,52 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>JX Servo PDI-6221MG 62g High Precision Metal Gear Digital Standard Ser – Sussex Model Centre</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Ball valve</t>
+  </si>
+  <si>
+    <t>Tameson</t>
+  </si>
+  <si>
+    <t>G1/4'' 2-Way Ball Valve Stainless Steel PTFE 63 bar - BL2SM | Tameson.co.uk</t>
+  </si>
+  <si>
+    <t>Also have higher KV, lower has better control?</t>
+  </si>
+  <si>
+    <t>G 1/4'' Male x 6L Stainless steel Straight Compression Fitting with FKM Seal 315 Bar DIN 2353</t>
+  </si>
+  <si>
+    <t>G 1/4'' Male x 6L Stainless steel Straight Compression Fitting with FKM Seal 315 Bar DIN 2353 | Tameson.co.uk</t>
+  </si>
+  <si>
+    <t>Hailege 2pcs AS5600 Magnetic Angle Measurement Sensor Magnetic Encoder Module 12Bit High precision with Magnet : Amazon.co.uk: Business, Industry &amp; Science</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +147,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,18 +174,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,8 +207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D67141-D08E-4B5B-9396-C795DBA4F7CD}" name="BOM_Table" displayName="BOM_Table" ref="A1:P4">
-  <autoFilter ref="A1:P4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D67141-D08E-4B5B-9396-C795DBA4F7CD}" name="BOM_Table" displayName="BOM_Table" ref="A1:P5">
+  <autoFilter ref="A1:P5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item No."/>
     <tableColumn id="16" xr3:uid="{06413161-70B0-468A-A74B-EDBB64C0AF8E}" name="Internal Part No."/>
@@ -231,8 +217,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Part No."/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Quantity"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost (£)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total Cost (£)">
-      <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total Cost (£)" dataDxfId="0">
+      <calculatedColumnFormula>BOM_Table[[#This Row],[Unit Cost (£)]]*BOM_Table[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Supplier / Source"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Lead Time (days)"/>
@@ -510,218 +496,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="30" customWidth="1"/>
+    <col min="16" max="16" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <f>BOM_Table[[#This Row],[Unit Cost (£)]]*BOM_Table[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="H3" s="3">
+        <f>BOM_Table[[#This Row],[Unit Cost (£)]]*BOM_Table[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12.76</v>
+      </c>
+      <c r="H4" s="3">
+        <f>BOM_Table[[#This Row],[Unit Cost (£)]]*BOM_Table[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>17.23</v>
+      </c>
+      <c r="H5" s="3">
+        <f>BOM_Table[[#This Row],[Unit Cost (£)]]*BOM_Table[[#This Row],[Quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2">
-        <f>F2*G2</f>
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>1250</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <f>F3*G3</f>
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>120</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>130</v>
-      </c>
-      <c r="H4">
-        <f>F4*G4</f>
-        <v>130</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>980</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="https://sussex-model-centre.co.uk/products/jx-servo-pdi-6221mg-62g-high-precision-metal-gear-digital-standard-servo?srsltid=AfmBOordSepAl-Am_HbPcQo6Etn3vM_shl_ccTF_O1EdO43UIqse8V5R" xr:uid="{3CC2DE3F-061E-4CC5-B525-1EBC564B32D0}"/>
+    <hyperlink ref="O4" r:id="rId2" display="https://tameson.co.uk/products/bl2sm-014-g1-4inch-2-way-ball-valve-stainless-steel-ptfe-63-bar" xr:uid="{AFA14FBB-B1C4-41C5-81C3-264A66E18A82}"/>
+    <hyperlink ref="O5" r:id="rId3" display="https://tameson.co.uk/products/fl2s-mo-stfp-014g-06-l-g-1-4inch-male-x-6l-stainless-steel-straight-compression-fitting-with-fkm-seal-315-bar-din-2353" xr:uid="{0968FD86-35DA-45AB-BB53-E2B7139FDD90}"/>
+    <hyperlink ref="O3" r:id="rId4" display="https://www.amazon.co.uk/Hailege-Magnetic-Measurement-Encoder-precision/dp/B0B778L7T3/ref=asc_df_B0B778L7T3?mcid=16295ad79bb1334dadfb808bd05d0f35&amp;hvocijid=4703877747329058695-B0B778L7T3-&amp;hvexpln=74&amp;tag=googshopuk-21&amp;linkCode=df0&amp;hvadid=696285193871&amp;hvpos=&amp;hvnetw=g&amp;hvrand=4703877747329058695&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007336&amp;hvtargid=pla-2281435176858&amp;psc=1&amp;gad_source=4" xr:uid="{BC7CAA5A-66B5-4112-A0F0-76541AF64125}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>